--- a/manufactura.chile.xlsx
+++ b/manufactura.chile.xlsx
@@ -2,25 +2,29 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IFOP\Curriculum\Cursos_y_talleres\2025.10.OHWe\InformeTallerIntermedio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4A3CD5-9BD1-4212-9DD2-B22332B6E4D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3881537-83EB-4668-9F27-C60EAC737359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21972" yWindow="-108" windowWidth="22080" windowHeight="13176" tabRatio="746" activeTab="1" xr2:uid="{BE9F6679-8C5D-41A1-BFF1-7EE265407ED3}"/>
+    <workbookView xWindow="-21972" yWindow="-108" windowWidth="22080" windowHeight="13176" tabRatio="746" xr2:uid="{BE9F6679-8C5D-41A1-BFF1-7EE265407ED3}"/>
   </bookViews>
   <sheets>
-    <sheet name="mp_clase" sheetId="8" r:id="rId1"/>
-    <sheet name="produccion_clase" sheetId="9" r:id="rId2"/>
-    <sheet name="capacidad" sheetId="13" r:id="rId3"/>
+    <sheet name="Hoja1" sheetId="14" r:id="rId1"/>
+    <sheet name="mp_clase" sheetId="8" r:id="rId2"/>
+    <sheet name="produccion_clase" sheetId="9" r:id="rId3"/>
+    <sheet name="capacidad" sheetId="13" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">capacidad!$A$1:$E$2773</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">capacidad!$A$1:$E$2773</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
+  <pivotCaches>
+    <pivotCache cacheId="3" r:id="rId5"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -64,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3095" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3098" uniqueCount="24">
   <si>
     <t>Tipo</t>
   </si>
@@ -128,6 +132,15 @@
   <si>
     <t>FRESCO ENFRIADO</t>
   </si>
+  <si>
+    <t>Etiquetas de columna</t>
+  </si>
+  <si>
+    <t>Total general</t>
+  </si>
+  <si>
+    <t>Suma de Toneladas</t>
+  </si>
 </sst>
 </file>
 
@@ -188,7 +201,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -199,6 +212,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares [0]" xfId="1" builtinId="6"/>
@@ -215,6 +229,442 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Andrea Araya" refreshedDate="45947.506767476851" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="33" xr:uid="{07397FA5-24ED-44E7-8E90-5AC79D3EF14E}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:G34" sheet="mp_clase"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="ANIO" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2014" maxValue="2024" count="11">
+        <n v="2014"/>
+        <n v="2015"/>
+        <n v="2016"/>
+        <n v="2017"/>
+        <n v="2018"/>
+        <n v="2019"/>
+        <n v="2020"/>
+        <n v="2021"/>
+        <n v="2022"/>
+        <n v="2023"/>
+        <n v="2024"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Tipo" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Toneladas" numFmtId="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="328019" maxValue="2168257"/>
+    </cacheField>
+    <cacheField name="CLASE" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Porcentaje" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.09" maxValue="0.56000000000000005"/>
+    </cacheField>
+    <cacheField name="Acum" numFmtId="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1517356.7420000001" maxValue="3980200.0800000038"/>
+    </cacheField>
+    <cacheField name="Acum_II" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.75867837100000002" maxValue="3.779763901500004"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="33">
+  <r>
+    <x v="0"/>
+    <s v="Materia prima"/>
+    <n v="1683630.7903030037"/>
+    <s v="Consumo humano"/>
+    <n v="0.46"/>
+    <n v="1683630.7903030037"/>
+    <n v="0.84181539515150183"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Materia prima"/>
+    <n v="1533708.0369999998"/>
+    <s v="Consumo animal"/>
+    <n v="0.42"/>
+    <n v="3217338.8273030035"/>
+    <n v="2.4504848088030036"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Materia prima"/>
+    <n v="449153.30349999998"/>
+    <s v="Derivados de algas"/>
+    <n v="0.12"/>
+    <n v="3666492.1308030034"/>
+    <n v="3.4419154790530033"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="Materia prima"/>
+    <n v="1613998.6228650059"/>
+    <s v="Consumo humano"/>
+    <n v="0.51"/>
+    <n v="1613998.6228650059"/>
+    <n v="0.80699931143250292"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="Materia prima"/>
+    <n v="1229304.8305189989"/>
+    <s v="Consumo animal"/>
+    <n v="0.38"/>
+    <n v="2843303.4533840045"/>
+    <n v="2.228651038124505"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="Materia prima"/>
+    <n v="354644.12500000017"/>
+    <s v="Derivados de algas"/>
+    <n v="0.11"/>
+    <n v="3197947.5783840045"/>
+    <n v="3.0206255158840047"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Materia prima"/>
+    <n v="1517356.7420000001"/>
+    <s v="Consumo humano"/>
+    <n v="0.56000000000000005"/>
+    <n v="1517356.7420000001"/>
+    <n v="0.75867837100000002"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Materia prima"/>
+    <n v="875734.82299999997"/>
+    <s v="Consumo animal"/>
+    <n v="0.32"/>
+    <n v="2393091.5649999999"/>
+    <n v="1.9552241535000001"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Materia prima"/>
+    <n v="328019"/>
+    <s v="Derivados de algas"/>
+    <n v="0.12"/>
+    <n v="2721110.5649999999"/>
+    <n v="2.5571010649999999"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Materia prima"/>
+    <n v="1670670.551"/>
+    <s v="Consumo humano"/>
+    <n v="0.5"/>
+    <n v="1670670.551"/>
+    <n v="0.83533527549999997"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Materia prima"/>
+    <n v="1312362.868"/>
+    <s v="Consumo animal"/>
+    <n v="0.39"/>
+    <n v="2983033.4189999998"/>
+    <n v="2.3268519849999998"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Materia prima"/>
+    <n v="386757"/>
+    <s v="Derivados de algas"/>
+    <n v="0.11"/>
+    <n v="3369790.4189999998"/>
+    <n v="3.176411919"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="Materia prima"/>
+    <n v="1804026.1980640001"/>
+    <s v="Consumo humano"/>
+    <n v="0.5"/>
+    <n v="1804026.1980640001"/>
+    <n v="0.90201309903200011"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="Materia prima"/>
+    <n v="1496587.8810550005"/>
+    <s v="Consumo animal"/>
+    <n v="0.41"/>
+    <n v="3300614.0791190006"/>
+    <n v="2.5523201385915004"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="Materia prima"/>
+    <n v="341844"/>
+    <s v="Derivados de algas"/>
+    <n v="0.09"/>
+    <n v="3642458.0791190006"/>
+    <n v="3.4715360791190006"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="Materia prima"/>
+    <n v="1783170.8860000072"/>
+    <s v="Consumo humano"/>
+    <n v="0.5"/>
+    <n v="1783170.8860000072"/>
+    <n v="0.89158544300000353"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="Materia prima"/>
+    <n v="1401160.3200000005"/>
+    <s v="Consumo animal"/>
+    <n v="0.39"/>
+    <n v="3184331.2060000077"/>
+    <n v="2.4837510460000076"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="Materia prima"/>
+    <n v="390961.62299999985"/>
+    <s v="Derivados de algas"/>
+    <n v="0.11"/>
+    <n v="3575292.8290000074"/>
+    <n v="3.3798120175000075"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="Materia prima"/>
+    <n v="1905359.903000006"/>
+    <s v="Consumo humano"/>
+    <n v="0.54"/>
+    <n v="1905359.903000006"/>
+    <n v="0.95267995150000295"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="Materia prima"/>
+    <n v="1258109.7689999994"/>
+    <s v="Consumo animal"/>
+    <n v="0.36"/>
+    <n v="3163469.6720000054"/>
+    <n v="2.5344147875000056"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="Materia prima"/>
+    <n v="368708.83500000008"/>
+    <s v="Derivados de algas"/>
+    <n v="0.1"/>
+    <n v="3532178.5070000053"/>
+    <n v="3.3478240895000053"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="Materia prima"/>
+    <n v="1923155"/>
+    <s v="Consumo humano"/>
+    <n v="0.52"/>
+    <n v="1923155"/>
+    <n v="0.96157749999999997"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="Materia prima"/>
+    <n v="1432558"/>
+    <s v="Consumo animal"/>
+    <n v="0.38"/>
+    <n v="3355713"/>
+    <n v="2.6394340000000001"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="Materia prima"/>
+    <n v="358873"/>
+    <s v="Derivados de algas"/>
+    <n v="0.1"/>
+    <n v="3714586"/>
+    <n v="3.5351495000000002"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Materia prima"/>
+    <n v="2119507.8210000047"/>
+    <s v="Consumo humano"/>
+    <n v="0.53251288337243652"/>
+    <n v="2119507.8210000047"/>
+    <n v="1.0597539105000022"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Materia prima"/>
+    <n v="1459819.9019999991"/>
+    <s v="Consumo animal"/>
+    <n v="0.36677048205074092"/>
+    <n v="3579327.723000004"/>
+    <n v="2.8494177720000047"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Materia prima"/>
+    <n v="400872.3569999999"/>
+    <s v="Derivados de algas"/>
+    <n v="0.10071663457682246"/>
+    <n v="3980200.0800000038"/>
+    <n v="3.779763901500004"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="Materia prima"/>
+    <n v="2125032"/>
+    <s v="Consumo humano"/>
+    <n v="0.55000000000000004"/>
+    <n v="2125032"/>
+    <n v="1.0597539105000022"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="Materia prima"/>
+    <n v="1355075"/>
+    <s v="Consumo animal"/>
+    <n v="0.35"/>
+    <n v="3480107"/>
+    <n v="2.8494177720000047"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="Materia prima"/>
+    <n v="398381"/>
+    <s v="Derivados de algas"/>
+    <n v="0.1"/>
+    <n v="3878488"/>
+    <n v="3.779763901500004"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="Materia prima"/>
+    <n v="2168257"/>
+    <s v="Consumo humano"/>
+    <n v="0.56000000000000005"/>
+    <n v="2168257"/>
+    <n v="1.0597539105000022"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="Materia prima"/>
+    <n v="1274009"/>
+    <s v="Consumo animal"/>
+    <n v="0.33"/>
+    <n v="3442266"/>
+    <n v="2.8494177720000047"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="Materia prima"/>
+    <n v="403895"/>
+    <s v="Derivados de algas"/>
+    <n v="0.11"/>
+    <n v="3846161"/>
+    <n v="3.779763901500004"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DA63436C-4805-4B69-B461-22DFC4D3EF80}" name="TablaDinámica1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:M5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="12">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Suma de Toneladas" fld="2" baseField="0" baseItem="0" numFmtId="1"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -513,11 +963,116 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24F354A8-A0CA-44E7-8870-519E7E0C7C60}">
+  <dimension ref="A3:M5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="12" width="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B3" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>2014</v>
+      </c>
+      <c r="C4">
+        <v>2015</v>
+      </c>
+      <c r="D4">
+        <v>2016</v>
+      </c>
+      <c r="E4">
+        <v>2017</v>
+      </c>
+      <c r="F4">
+        <v>2018</v>
+      </c>
+      <c r="G4">
+        <v>2019</v>
+      </c>
+      <c r="H4">
+        <v>2020</v>
+      </c>
+      <c r="I4">
+        <v>2021</v>
+      </c>
+      <c r="J4">
+        <v>2022</v>
+      </c>
+      <c r="K4">
+        <v>2023</v>
+      </c>
+      <c r="L4">
+        <v>2024</v>
+      </c>
+      <c r="M4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3666492.1308030034</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3197947.5783840045</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2721110.5649999999</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3369790.4189999998</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3642458.0791190006</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3575292.8290000074</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3532178.5070000053</v>
+      </c>
+      <c r="I5" s="1">
+        <v>3714586</v>
+      </c>
+      <c r="J5" s="1">
+        <v>3980200.0800000038</v>
+      </c>
+      <c r="K5" s="1">
+        <v>3878488</v>
+      </c>
+      <c r="L5" s="1">
+        <v>3846161</v>
+      </c>
+      <c r="M5" s="1">
+        <v>39124705.188306026</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E41B0D4-6C82-4295-A128-203857344C75}">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H32" activeCellId="3" sqref="G26:G28 G29:G31 G32:G34 H32"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1325,11 +1880,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7B44E6D-7990-4305-9F17-3F952DF2B0A5}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I34" activeCellId="3" sqref="G26:G28 G29:G31 G32:G34 I34"/>
     </sheetView>
   </sheetViews>
@@ -2136,7 +2691,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F67A9DF7-1995-4DCF-A3B9-5A2913E4EF0A}">
   <dimension ref="A1:E2945"/>
   <sheetViews>
